--- a/Unit Functions/Infinities/Infinities.xlsx
+++ b/Unit Functions/Infinities/Infinities.xlsx
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000000000000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -39,7 +39,6 @@
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
-    <font/>
     <font>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -209,59 +208,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -480,13 +447,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="3" width="16.86"/>
     <col customWidth="1" min="4" max="6" width="43.57"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1">
         <f>(((1.5578+0.102414319819447)*0.95)+1.5578)</f>
         <v>3.135003604</v>
@@ -506,7 +473,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A100" si="4">(((A1*0.95)+1.5578)+0.102414319819447)</f>
         <v>4.638467743</v>
@@ -532,7 +499,7 @@
         <v>1.141395366</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <f t="shared" si="4"/>
         <v>6.066758676</v>
@@ -558,7 +525,7 @@
         <v>-0.00006020372301</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <f t="shared" si="4"/>
         <v>7.423635062</v>
@@ -584,7 +551,7 @@
         <v>44.45317458</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <f t="shared" si="4"/>
         <v>8.712667629</v>
@@ -610,7 +577,7 @@
         <v>44.45183648</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <f t="shared" si="4"/>
         <v>9.937248567</v>
@@ -636,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <f t="shared" si="4"/>
         <v>11.10060046</v>
@@ -662,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <f t="shared" si="4"/>
         <v>12.20578476</v>
@@ -688,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>13.25570984</v>
@@ -714,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>14.25313867</v>
@@ -740,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>15.20069605</v>
@@ -766,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <f t="shared" si="4"/>
         <v>16.10087557</v>
@@ -792,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>16.95604611</v>
@@ -809,7 +776,7 @@
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>17.76845812</v>
@@ -822,11 +789,11 @@
         <f t="shared" si="2"/>
         <v>22.56594182</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15">
+      <c r="D14" s="1"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>18.54024954</v>
@@ -839,11 +806,11 @@
         <f t="shared" si="2"/>
         <v>23.54611691</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16">
+      <c r="D15" s="1"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <f t="shared" si="4"/>
         <v>19.27345138</v>
@@ -856,11 +823,11 @@
         <f t="shared" si="2"/>
         <v>24.47728325</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17">
+      <c r="D16" s="1"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>19.96999313</v>
@@ -873,11 +840,11 @@
         <f t="shared" si="2"/>
         <v>25.36189128</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18">
+      <c r="D17" s="1"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>20.6317078</v>
@@ -890,11 +857,11 @@
         <f t="shared" si="2"/>
         <v>26.2022689</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19">
+      <c r="D18" s="1"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>21.26033673</v>
@@ -907,11 +874,11 @@
         <f t="shared" si="2"/>
         <v>27.00062764</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20">
+      <c r="D19" s="1"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>21.85753421</v>
@@ -924,11 +891,11 @@
         <f t="shared" si="2"/>
         <v>27.75906845</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21">
+      <c r="D20" s="1"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>22.42487182</v>
@@ -941,11 +908,11 @@
         <f t="shared" si="2"/>
         <v>28.47958721</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22">
+      <c r="D21" s="1"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>22.96384255</v>
@@ -958,11 +925,11 @@
         <f t="shared" si="2"/>
         <v>29.16408003</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23">
+      <c r="D22" s="1"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>23.47586474</v>
@@ -975,11 +942,11 @@
         <f t="shared" si="2"/>
         <v>29.81434822</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24">
+      <c r="D23" s="1"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>23.96228582</v>
@@ -992,11 +959,11 @@
         <f t="shared" si="2"/>
         <v>30.43210299</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>24.42438585</v>
@@ -1009,11 +976,11 @@
         <f t="shared" si="2"/>
         <v>31.01897003</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26">
+      <c r="D25" s="1"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24.86338088</v>
@@ -1026,11 +993,11 @@
         <f t="shared" si="2"/>
         <v>31.57649372</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27">
+      <c r="D26" s="1"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>25.28042615</v>
@@ -1043,11 +1010,11 @@
         <f t="shared" si="2"/>
         <v>32.10614122</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28">
+      <c r="D27" s="1"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>25.67661917</v>
@@ -1060,11 +1027,11 @@
         <f t="shared" si="2"/>
         <v>32.60930634</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>26.05300253</v>
@@ -1077,11 +1044,11 @@
         <f t="shared" si="2"/>
         <v>33.08731321</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>26.41056672</v>
@@ -1094,11 +1061,11 @@
         <f t="shared" si="2"/>
         <v>33.54141974</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>26.75025271</v>
@@ -1111,11 +1078,11 @@
         <f t="shared" si="2"/>
         <v>33.97282094</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>27.07295439</v>
@@ -1128,11 +1095,11 @@
         <f t="shared" si="2"/>
         <v>34.38265207</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>27.37952099</v>
@@ -1145,11 +1112,11 @@
         <f t="shared" si="2"/>
         <v>34.77199166</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34">
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>27.67075926</v>
@@ -1162,11 +1129,11 @@
         <f t="shared" si="2"/>
         <v>35.14186426</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>27.94743562</v>
@@ -1179,11 +1146,11 @@
         <f t="shared" si="2"/>
         <v>35.49324323</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36">
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>28.21027816</v>
@@ -1196,11 +1163,11 @@
         <f t="shared" si="2"/>
         <v>35.82705326</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37">
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>28.45997857</v>
@@ -1213,11 +1180,11 @@
         <f t="shared" si="2"/>
         <v>36.14417278</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>28.69719396</v>
@@ -1230,11 +1197,11 @@
         <f t="shared" si="2"/>
         <v>36.44543633</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39">
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <f t="shared" si="4"/>
         <v>28.92254858</v>
@@ -1247,11 +1214,11 @@
         <f t="shared" si="2"/>
         <v>36.7316367</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <f t="shared" si="4"/>
         <v>29.13663547</v>
@@ -1264,11 +1231,11 @@
         <f t="shared" si="2"/>
         <v>37.00352705</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41">
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <f t="shared" si="4"/>
         <v>29.34001802</v>
@@ -1281,11 +1248,11 @@
         <f t="shared" si="2"/>
         <v>37.26182288</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42">
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <f t="shared" si="4"/>
         <v>29.53323144</v>
@@ -1298,11 +1265,11 @@
         <f t="shared" si="2"/>
         <v>37.50720393</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <f t="shared" si="4"/>
         <v>29.71678419</v>
@@ -1315,11 +1282,11 @@
         <f t="shared" si="2"/>
         <v>37.74031592</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44">
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <f t="shared" si="4"/>
         <v>29.8911593</v>
@@ -1332,11 +1299,11 @@
         <f t="shared" si="2"/>
         <v>37.96177231</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45">
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <f t="shared" si="4"/>
         <v>30.05681565</v>
@@ -1349,11 +1316,11 @@
         <f t="shared" si="2"/>
         <v>38.17215588</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <f t="shared" si="4"/>
         <v>30.21418919</v>
@@ -1366,11 +1333,11 @@
         <f t="shared" si="2"/>
         <v>38.37202027</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47">
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <f t="shared" si="4"/>
         <v>30.36369405</v>
@@ -1383,11 +1350,11 @@
         <f t="shared" si="2"/>
         <v>38.56189144</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48">
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <f t="shared" si="4"/>
         <v>30.50572367</v>
@@ -1400,11 +1367,11 @@
         <f t="shared" si="2"/>
         <v>38.74226906</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49">
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <f t="shared" si="4"/>
         <v>30.6406518</v>
@@ -1417,11 +1384,11 @@
         <f t="shared" si="2"/>
         <v>38.91362779</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50">
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <f t="shared" si="4"/>
         <v>30.76883353</v>
@@ -1434,11 +1401,11 @@
         <f t="shared" si="2"/>
         <v>39.07641859</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51">
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <f t="shared" si="4"/>
         <v>30.89060618</v>
@@ -1451,11 +1418,11 @@
         <f t="shared" si="2"/>
         <v>39.23106984</v>
       </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52">
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <f t="shared" si="4"/>
         <v>31.00629019</v>
@@ -1468,11 +1435,11 @@
         <f t="shared" si="2"/>
         <v>39.37798854</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53">
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <f t="shared" si="4"/>
         <v>31.11619</v>
@@ -1485,11 +1452,11 @@
         <f t="shared" si="2"/>
         <v>39.5175613</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54">
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <f t="shared" si="4"/>
         <v>31.22059482</v>
@@ -1502,11 +1469,11 @@
         <f t="shared" si="2"/>
         <v>39.65015542</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55">
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <f t="shared" si="4"/>
         <v>31.3197794</v>
@@ -1519,11 +1486,11 @@
         <f t="shared" si="2"/>
         <v>39.77611983</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56">
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <f t="shared" si="4"/>
         <v>31.41400475</v>
@@ -1536,11 +1503,11 @@
         <f t="shared" si="2"/>
         <v>39.89578603</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57">
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <f t="shared" si="4"/>
         <v>31.50351883</v>
@@ -1553,11 +1520,11 @@
         <f t="shared" si="2"/>
         <v>40.00946891</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58">
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <f t="shared" si="4"/>
         <v>31.58855721</v>
@@ -1570,11 +1537,11 @@
         <f t="shared" si="2"/>
         <v>40.11746765</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59">
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <f t="shared" si="4"/>
         <v>31.66934367</v>
@@ -1587,11 +1554,11 @@
         <f t="shared" si="2"/>
         <v>40.22006646</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60">
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <f t="shared" si="4"/>
         <v>31.7460908</v>
@@ -1604,11 +1571,11 @@
         <f t="shared" si="2"/>
         <v>40.31753532</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61">
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <f t="shared" si="4"/>
         <v>31.81900058</v>
@@ -1621,11 +1588,11 @@
         <f t="shared" si="2"/>
         <v>40.41013074</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62">
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1">
         <f t="shared" si="4"/>
         <v>31.88826487</v>
@@ -1638,11 +1605,11 @@
         <f t="shared" si="2"/>
         <v>40.49809639</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63">
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <f t="shared" si="4"/>
         <v>31.95406595</v>
@@ -1655,11 +1622,11 @@
         <f t="shared" si="2"/>
         <v>40.58166376</v>
       </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64">
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1">
         <f t="shared" si="4"/>
         <v>32.01657697</v>
@@ -1672,11 +1639,11 @@
         <f t="shared" si="2"/>
         <v>40.66105275</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65">
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <f t="shared" si="4"/>
         <v>32.07596244</v>
@@ -1689,11 +1656,11 @@
         <f t="shared" si="2"/>
         <v>40.7364723</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66">
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <f t="shared" si="4"/>
         <v>32.13237864</v>
@@ -1706,11 +1673,11 @@
         <f t="shared" si="2"/>
         <v>40.80812087</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67">
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1">
         <f t="shared" si="4"/>
         <v>32.18597403</v>
@@ -1723,11 +1690,11 @@
         <f t="shared" si="2"/>
         <v>40.87618702</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68">
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1">
         <f t="shared" si="4"/>
         <v>32.23688965</v>
@@ -1740,11 +1707,11 @@
         <f t="shared" si="2"/>
         <v>40.94084985</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69">
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1">
         <f t="shared" si="4"/>
         <v>32.28525948</v>
@@ -1757,11 +1724,11 @@
         <f t="shared" si="2"/>
         <v>41.00227954</v>
       </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70">
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1">
         <f t="shared" si="4"/>
         <v>32.33121083</v>
@@ -1774,11 +1741,11 @@
         <f t="shared" si="2"/>
         <v>41.06063775</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-    </row>
-    <row r="71">
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1">
         <f t="shared" si="4"/>
         <v>32.37486461</v>
@@ -1791,11 +1758,11 @@
         <f t="shared" si="2"/>
         <v>41.11607805</v>
       </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-    </row>
-    <row r="72">
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1">
         <f t="shared" si="4"/>
         <v>32.4163357</v>
@@ -1808,11 +1775,11 @@
         <f t="shared" si="2"/>
         <v>41.16874634</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73">
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1">
         <f t="shared" si="4"/>
         <v>32.45573323</v>
@@ -1825,11 +1792,11 @@
         <f t="shared" si="2"/>
         <v>41.21878121</v>
       </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-    </row>
-    <row r="74">
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1">
         <f t="shared" si="4"/>
         <v>32.49316089</v>
@@ -1842,11 +1809,11 @@
         <f t="shared" si="2"/>
         <v>41.26631433</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75">
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1">
         <f t="shared" si="4"/>
         <v>32.52871717</v>
@@ -1859,11 +1826,11 @@
         <f t="shared" si="2"/>
         <v>41.3114708</v>
       </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76">
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1">
         <f t="shared" si="4"/>
         <v>32.56249563</v>
@@ -1876,11 +1843,11 @@
         <f t="shared" si="2"/>
         <v>41.35436945</v>
       </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-    </row>
-    <row r="77">
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1">
         <f t="shared" si="4"/>
         <v>32.59458517</v>
@@ -1893,11 +1860,11 @@
         <f t="shared" si="2"/>
         <v>41.39512316</v>
       </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78">
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1">
         <f t="shared" si="4"/>
         <v>32.62507023</v>
@@ -1910,11 +1877,11 @@
         <f t="shared" si="2"/>
         <v>41.43383919</v>
       </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79">
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1">
         <f t="shared" si="4"/>
         <v>32.65403104</v>
@@ -1927,11 +1894,11 @@
         <f t="shared" si="2"/>
         <v>41.47061942</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80">
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1">
         <f t="shared" si="4"/>
         <v>32.6815438</v>
@@ -1944,11 +1911,11 @@
         <f t="shared" si="2"/>
         <v>41.50556063</v>
       </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81">
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1">
         <f t="shared" si="4"/>
         <v>32.70768093</v>
@@ -1961,11 +1928,11 @@
         <f t="shared" si="2"/>
         <v>41.53875479</v>
       </c>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82">
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1">
         <f t="shared" si="4"/>
         <v>32.73251121</v>
@@ -1978,11 +1945,11 @@
         <f t="shared" si="2"/>
         <v>41.57028923</v>
       </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83">
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1">
         <f t="shared" si="4"/>
         <v>32.75609997</v>
@@ -1995,11 +1962,11 @@
         <f t="shared" si="2"/>
         <v>41.60024696</v>
       </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-    </row>
-    <row r="84">
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1">
         <f t="shared" si="4"/>
         <v>32.77850929</v>
@@ -2012,11 +1979,11 @@
         <f t="shared" si="2"/>
         <v>41.6287068</v>
       </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-    </row>
-    <row r="85">
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1">
         <f t="shared" si="4"/>
         <v>32.79979814</v>
@@ -2029,11 +1996,11 @@
         <f t="shared" si="2"/>
         <v>41.65574364</v>
       </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-    </row>
-    <row r="86">
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1">
         <f t="shared" si="4"/>
         <v>32.82002256</v>
@@ -2046,11 +2013,11 @@
         <f t="shared" si="2"/>
         <v>41.68142865</v>
       </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-    </row>
-    <row r="87">
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1">
         <f t="shared" si="4"/>
         <v>32.83923575</v>
@@ -2063,11 +2030,11 @@
         <f t="shared" si="2"/>
         <v>41.7058294</v>
       </c>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-    </row>
-    <row r="88">
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1">
         <f t="shared" si="4"/>
         <v>32.85748828</v>
@@ -2080,11 +2047,11 @@
         <f t="shared" si="2"/>
         <v>41.72901012</v>
       </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-    </row>
-    <row r="89">
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1">
         <f t="shared" si="4"/>
         <v>32.87482819</v>
@@ -2097,11 +2064,11 @@
         <f t="shared" si="2"/>
         <v>41.7510318</v>
       </c>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-    </row>
-    <row r="90">
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1">
         <f t="shared" si="4"/>
         <v>32.8913011</v>
@@ -2114,11 +2081,11 @@
         <f t="shared" si="2"/>
         <v>41.77195239</v>
       </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-    </row>
-    <row r="91">
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1">
         <f t="shared" si="4"/>
         <v>32.90695036</v>
@@ -2131,11 +2098,11 @@
         <f t="shared" si="2"/>
         <v>41.79182696</v>
       </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-    </row>
-    <row r="92">
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1">
         <f t="shared" si="4"/>
         <v>32.92181716</v>
@@ -2148,11 +2115,11 @@
         <f t="shared" si="2"/>
         <v>41.8107078</v>
       </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-    </row>
-    <row r="93">
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1">
         <f t="shared" si="4"/>
         <v>32.93594062</v>
@@ -2165,11 +2132,11 @@
         <f t="shared" si="2"/>
         <v>41.82864459</v>
       </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-    </row>
-    <row r="94">
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1">
         <f t="shared" si="4"/>
         <v>32.94935791</v>
@@ -2182,11 +2149,11 @@
         <f t="shared" si="2"/>
         <v>41.84568455</v>
       </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-    </row>
-    <row r="95">
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1">
         <f t="shared" si="4"/>
         <v>32.96210434</v>
@@ -2199,11 +2166,11 @@
         <f t="shared" si="2"/>
         <v>41.86187251</v>
       </c>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-    </row>
-    <row r="96">
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1">
         <f t="shared" si="4"/>
         <v>32.97421344</v>
@@ -2216,11 +2183,11 @@
         <f t="shared" si="2"/>
         <v>41.87725107</v>
       </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-    </row>
-    <row r="97">
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1">
         <f t="shared" si="4"/>
         <v>32.98571709</v>
@@ -2233,11 +2200,11 @@
         <f t="shared" si="2"/>
         <v>41.8918607</v>
       </c>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-    </row>
-    <row r="98">
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1">
         <f t="shared" si="4"/>
         <v>32.99664555</v>
@@ -2250,11 +2217,11 @@
         <f t="shared" si="2"/>
         <v>41.90573985</v>
       </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-    </row>
-    <row r="99">
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1">
         <f t="shared" si="4"/>
         <v>33.0070276</v>
@@ -2267,11 +2234,11 @@
         <f t="shared" si="2"/>
         <v>41.91892505</v>
       </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-    </row>
-    <row r="100">
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1">
         <f t="shared" si="4"/>
         <v>33.01689054</v>
@@ -2284,10 +2251,910 @@
         <f t="shared" si="2"/>
         <v>41.93145098</v>
       </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-    </row>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2301,12 +3168,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="27" width="19.29"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="str">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2416,117 +3283,117 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="19" t="str">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:Z2" si="2">A1/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z2" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA2" s="19" t="str">
+      <c r="B2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="X2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Y2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Z2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA2" s="1" t="str">
         <f>(SUM(Sheet1!A:A)+(#REF!)+(#REF!)+(#REF!)+(#REF!)+(#REF!)+(#REF!)+(#REF!)+(#REF!))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:Z3" si="3">A2/2.7</f>
         <v>#REF!</v>
@@ -2633,114 +3500,114 @@
       </c>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="19" t="str">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="str">
         <f t="shared" ref="A4:Z4" si="4">A3/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z4" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA4" s="19"/>
-    </row>
-    <row r="5">
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="str">
         <f t="shared" ref="A5:Z5" si="5">A4/2.7</f>
         <v>#REF!</v>
@@ -2847,2517 +3714,3455 @@
       </c>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="19" t="str">
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="str">
         <f t="shared" ref="A6:Z6" si="6">A5/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="19" t="str">
+      <c r="D6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="E6" s="19" t="str">
+      <c r="E6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="19" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="19" t="str">
+      <c r="H6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="19" t="str">
+      <c r="I6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="19" t="str">
+      <c r="J6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="19" t="str">
+      <c r="K6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="19" t="str">
+      <c r="L6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="19" t="str">
+      <c r="M6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="N6" s="19" t="str">
+      <c r="N6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="O6" s="19" t="str">
+      <c r="O6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="P6" s="19" t="str">
+      <c r="P6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="Q6" s="19" t="str">
+      <c r="Q6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="R6" s="19" t="str">
+      <c r="R6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="S6" s="19" t="str">
+      <c r="S6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="T6" s="19" t="str">
+      <c r="T6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="U6" s="19" t="str">
+      <c r="U6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="V6" s="19" t="str">
+      <c r="V6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="W6" s="19" t="str">
+      <c r="W6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="X6" s="19" t="str">
+      <c r="X6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="Y6" s="19" t="str">
+      <c r="Y6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="Z6" s="19" t="str">
+      <c r="Z6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="AA6" s="19"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="str">
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="str">
         <f t="shared" ref="A7:Z7" si="7">A6/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="C7" s="19" t="str">
+      <c r="C7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="D7" s="19" t="str">
+      <c r="D7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="E7" s="19" t="str">
+      <c r="E7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="G7" s="19" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H7" s="19" t="str">
+      <c r="H7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="I7" s="19" t="str">
+      <c r="I7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="K7" s="19" t="str">
+      <c r="K7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="L7" s="19" t="str">
+      <c r="L7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="M7" s="19" t="str">
+      <c r="M7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="N7" s="19" t="str">
+      <c r="N7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="O7" s="19" t="str">
+      <c r="O7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="P7" s="19" t="str">
+      <c r="P7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="Q7" s="19" t="str">
+      <c r="Q7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="R7" s="19" t="str">
+      <c r="R7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="S7" s="19" t="str">
+      <c r="S7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="T7" s="19" t="str">
+      <c r="T7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="U7" s="19" t="str">
+      <c r="U7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="V7" s="19" t="str">
+      <c r="V7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="W7" s="19" t="str">
+      <c r="W7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="X7" s="19" t="str">
+      <c r="X7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="Y7" s="19" t="str">
+      <c r="Y7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="Z7" s="19" t="str">
+      <c r="Z7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="AA7" s="19"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="19" t="str">
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="str">
         <f t="shared" ref="A8:Z8" si="8">A7/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="C8" s="19" t="str">
+      <c r="C8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="E8" s="19" t="str">
+      <c r="E8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="G8" s="19" t="str">
+      <c r="G8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="H8" s="19" t="str">
+      <c r="H8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I8" s="19" t="str">
+      <c r="I8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="J8" s="19" t="str">
+      <c r="J8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="K8" s="19" t="str">
+      <c r="K8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="19" t="str">
+      <c r="L8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="M8" s="19" t="str">
+      <c r="M8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="N8" s="19" t="str">
+      <c r="N8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="O8" s="19" t="str">
+      <c r="O8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="P8" s="19" t="str">
+      <c r="P8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="Q8" s="19" t="str">
+      <c r="Q8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="R8" s="19" t="str">
+      <c r="R8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="S8" s="19" t="str">
+      <c r="S8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="T8" s="19" t="str">
+      <c r="T8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="U8" s="19" t="str">
+      <c r="U8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="V8" s="19" t="str">
+      <c r="V8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="W8" s="19" t="str">
+      <c r="W8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="X8" s="19" t="str">
+      <c r="X8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="Y8" s="19" t="str">
+      <c r="Y8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="Z8" s="19" t="str">
+      <c r="Z8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="AA8" s="19"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="19" t="str">
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="str">
         <f t="shared" ref="A9:Z9" si="9">A8/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="19" t="str">
+      <c r="B9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J9" s="19" t="str">
+      <c r="J9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="K9" s="19" t="str">
+      <c r="K9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="L9" s="19" t="str">
+      <c r="L9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="M9" s="19" t="str">
+      <c r="M9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="N9" s="19" t="str">
+      <c r="N9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="O9" s="19" t="str">
+      <c r="O9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="P9" s="19" t="str">
+      <c r="P9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="Q9" s="19" t="str">
+      <c r="Q9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="R9" s="19" t="str">
+      <c r="R9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="S9" s="19" t="str">
+      <c r="S9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="T9" s="19" t="str">
+      <c r="T9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="U9" s="19" t="str">
+      <c r="U9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="V9" s="19" t="str">
+      <c r="V9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="W9" s="19" t="str">
+      <c r="W9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="X9" s="19" t="str">
+      <c r="X9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="Y9" s="19" t="str">
+      <c r="Y9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="Z9" s="19" t="str">
+      <c r="Z9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="AA9" s="19"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="19" t="str">
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="str">
         <f t="shared" ref="A10:Z10" si="10">A9/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B10" s="19" t="str">
+      <c r="B10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="C10" s="19" t="str">
+      <c r="C10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="D10" s="19" t="str">
+      <c r="D10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="E10" s="19" t="str">
+      <c r="E10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="F10" s="19" t="str">
+      <c r="F10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="G10" s="19" t="str">
+      <c r="G10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="H10" s="19" t="str">
+      <c r="H10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="I10" s="19" t="str">
+      <c r="I10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="J10" s="19" t="str">
+      <c r="J10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="K10" s="19" t="str">
+      <c r="K10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="L10" s="19" t="str">
+      <c r="L10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="M10" s="19" t="str">
+      <c r="M10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="N10" s="19" t="str">
+      <c r="N10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="O10" s="19" t="str">
+      <c r="O10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="P10" s="19" t="str">
+      <c r="P10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="Q10" s="19" t="str">
+      <c r="Q10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="R10" s="19" t="str">
+      <c r="R10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="S10" s="19" t="str">
+      <c r="S10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="T10" s="19" t="str">
+      <c r="T10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="U10" s="19" t="str">
+      <c r="U10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="V10" s="19" t="str">
+      <c r="V10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="W10" s="19" t="str">
+      <c r="W10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="X10" s="19" t="str">
+      <c r="X10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="Y10" s="19" t="str">
+      <c r="Y10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="Z10" s="19" t="str">
+      <c r="Z10" s="1" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="AA10" s="19"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="19" t="str">
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="str">
         <f t="shared" ref="A11:Z11" si="11">A10/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B11" s="19" t="str">
+      <c r="B11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="C11" s="19" t="str">
+      <c r="C11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="D11" s="19" t="str">
+      <c r="D11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="E11" s="19" t="str">
+      <c r="E11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="F11" s="19" t="str">
+      <c r="F11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="G11" s="19" t="str">
+      <c r="G11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="H11" s="19" t="str">
+      <c r="H11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="I11" s="19" t="str">
+      <c r="I11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="J11" s="19" t="str">
+      <c r="J11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="K11" s="19" t="str">
+      <c r="K11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="L11" s="19" t="str">
+      <c r="L11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="M11" s="19" t="str">
+      <c r="M11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="N11" s="19" t="str">
+      <c r="N11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="O11" s="19" t="str">
+      <c r="O11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="P11" s="19" t="str">
+      <c r="P11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="Q11" s="19" t="str">
+      <c r="Q11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="R11" s="19" t="str">
+      <c r="R11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="S11" s="19" t="str">
+      <c r="S11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="T11" s="19" t="str">
+      <c r="T11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="U11" s="19" t="str">
+      <c r="U11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="V11" s="19" t="str">
+      <c r="V11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="W11" s="19" t="str">
+      <c r="W11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="X11" s="19" t="str">
+      <c r="X11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="Y11" s="19" t="str">
+      <c r="Y11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="Z11" s="19" t="str">
+      <c r="Z11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="AA11" s="19"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="19" t="str">
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="str">
         <f t="shared" ref="A12:Z12" si="12">A11/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B12" s="19" t="str">
+      <c r="B12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="C12" s="19" t="str">
+      <c r="C12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="D12" s="19" t="str">
+      <c r="D12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="E12" s="19" t="str">
+      <c r="E12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="F12" s="19" t="str">
+      <c r="F12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="G12" s="19" t="str">
+      <c r="G12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="H12" s="19" t="str">
+      <c r="H12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="I12" s="19" t="str">
+      <c r="I12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="J12" s="19" t="str">
+      <c r="J12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="K12" s="19" t="str">
+      <c r="K12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="L12" s="19" t="str">
+      <c r="L12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="M12" s="19" t="str">
+      <c r="M12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="N12" s="19" t="str">
+      <c r="N12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="O12" s="19" t="str">
+      <c r="O12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="P12" s="19" t="str">
+      <c r="P12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="Q12" s="19" t="str">
+      <c r="Q12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="R12" s="19" t="str">
+      <c r="R12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="S12" s="19" t="str">
+      <c r="S12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="T12" s="19" t="str">
+      <c r="T12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="19" t="str">
+      <c r="U12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="V12" s="19" t="str">
+      <c r="V12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="W12" s="19" t="str">
+      <c r="W12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="X12" s="19" t="str">
+      <c r="X12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="19" t="str">
+      <c r="Y12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="Z12" s="19" t="str">
+      <c r="Z12" s="1" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="AA12" s="19"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="19" t="str">
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="str">
         <f t="shared" ref="A13:Z13" si="13">A12/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B13" s="19" t="str">
+      <c r="B13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="C13" s="19" t="str">
+      <c r="C13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="19" t="str">
+      <c r="D13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="19" t="str">
+      <c r="E13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="19" t="str">
+      <c r="F13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="G13" s="19" t="str">
+      <c r="G13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="H13" s="19" t="str">
+      <c r="H13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="I13" s="19" t="str">
+      <c r="I13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="J13" s="19" t="str">
+      <c r="J13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="K13" s="19" t="str">
+      <c r="K13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="L13" s="19" t="str">
+      <c r="L13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="M13" s="19" t="str">
+      <c r="M13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="N13" s="19" t="str">
+      <c r="N13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="O13" s="19" t="str">
+      <c r="O13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="P13" s="19" t="str">
+      <c r="P13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="Q13" s="19" t="str">
+      <c r="Q13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="R13" s="19" t="str">
+      <c r="R13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="S13" s="19" t="str">
+      <c r="S13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="T13" s="19" t="str">
+      <c r="T13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="U13" s="19" t="str">
+      <c r="U13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="V13" s="19" t="str">
+      <c r="V13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="W13" s="19" t="str">
+      <c r="W13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="X13" s="19" t="str">
+      <c r="X13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="Y13" s="19" t="str">
+      <c r="Y13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="Z13" s="19" t="str">
+      <c r="Z13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="AA13" s="19"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="str">
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="str">
         <f t="shared" ref="A14:Z14" si="14">A13/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B14" s="19" t="str">
+      <c r="B14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="C14" s="19" t="str">
+      <c r="C14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="D14" s="19" t="str">
+      <c r="D14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="E14" s="19" t="str">
+      <c r="E14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="G14" s="19" t="str">
+      <c r="G14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="H14" s="19" t="str">
+      <c r="H14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="I14" s="19" t="str">
+      <c r="I14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="J14" s="19" t="str">
+      <c r="J14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="K14" s="19" t="str">
+      <c r="K14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="L14" s="19" t="str">
+      <c r="L14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="M14" s="19" t="str">
+      <c r="M14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="N14" s="19" t="str">
+      <c r="N14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="O14" s="19" t="str">
+      <c r="O14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="P14" s="19" t="str">
+      <c r="P14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="Q14" s="19" t="str">
+      <c r="Q14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="R14" s="19" t="str">
+      <c r="R14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="S14" s="19" t="str">
+      <c r="S14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="T14" s="19" t="str">
+      <c r="T14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="U14" s="19" t="str">
+      <c r="U14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="V14" s="19" t="str">
+      <c r="V14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="W14" s="19" t="str">
+      <c r="W14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="X14" s="19" t="str">
+      <c r="X14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="Y14" s="19" t="str">
+      <c r="Y14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="Z14" s="19" t="str">
+      <c r="Z14" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="AA14" s="19"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="19" t="str">
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="str">
         <f t="shared" ref="A15:Z15" si="15">A14/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B15" s="19" t="str">
+      <c r="B15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="H15" s="19" t="str">
+      <c r="H15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="I15" s="19" t="str">
+      <c r="I15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="J15" s="19" t="str">
+      <c r="J15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="K15" s="19" t="str">
+      <c r="K15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="L15" s="19" t="str">
+      <c r="L15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="M15" s="19" t="str">
+      <c r="M15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="N15" s="19" t="str">
+      <c r="N15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="O15" s="19" t="str">
+      <c r="O15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="P15" s="19" t="str">
+      <c r="P15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="Q15" s="19" t="str">
+      <c r="Q15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="R15" s="19" t="str">
+      <c r="R15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="S15" s="19" t="str">
+      <c r="S15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="T15" s="19" t="str">
+      <c r="T15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="U15" s="19" t="str">
+      <c r="U15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="V15" s="19" t="str">
+      <c r="V15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="W15" s="19" t="str">
+      <c r="W15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="X15" s="19" t="str">
+      <c r="X15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="Y15" s="19" t="str">
+      <c r="Y15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="Z15" s="19" t="str">
+      <c r="Z15" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="AA15" s="19"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="19" t="str">
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="str">
         <f t="shared" ref="A16:Z16" si="16">A15/2.7</f>
         <v>#REF!</v>
       </c>
-      <c r="B16" s="19" t="str">
+      <c r="B16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="C16" s="19" t="str">
+      <c r="C16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="D16" s="19" t="str">
+      <c r="D16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="E16" s="19" t="str">
+      <c r="E16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="F16" s="19" t="str">
+      <c r="F16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="G16" s="19" t="str">
+      <c r="G16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="H16" s="19" t="str">
+      <c r="H16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="I16" s="19" t="str">
+      <c r="I16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="J16" s="19" t="str">
+      <c r="J16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="K16" s="19" t="str">
+      <c r="K16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="L16" s="19" t="str">
+      <c r="L16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="M16" s="19" t="str">
+      <c r="M16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="N16" s="19" t="str">
+      <c r="N16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="O16" s="19" t="str">
+      <c r="O16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="P16" s="19" t="str">
+      <c r="P16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="Q16" s="19" t="str">
+      <c r="Q16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="R16" s="19" t="str">
+      <c r="R16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="S16" s="19" t="str">
+      <c r="S16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="T16" s="19" t="str">
+      <c r="T16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="U16" s="19" t="str">
+      <c r="U16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="V16" s="19" t="str">
+      <c r="V16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="W16" s="19" t="str">
+      <c r="W16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="X16" s="19" t="str">
+      <c r="X16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="Y16" s="19" t="str">
+      <c r="Y16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="Z16" s="19" t="str">
+      <c r="Z16" s="1" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="AA16" s="19"/>
-    </row>
-    <row r="17">
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-    </row>
-    <row r="18">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-    </row>
-    <row r="19">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-    </row>
-    <row r="20">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-    </row>
-    <row r="21">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-    </row>
-    <row r="22">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-    </row>
-    <row r="23">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-    </row>
-    <row r="24">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-    </row>
-    <row r="25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-    </row>
-    <row r="26">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-    </row>
-    <row r="27">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-    </row>
-    <row r="28">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-    </row>
-    <row r="29">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-    </row>
-    <row r="30">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-    </row>
-    <row r="31">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-    </row>
-    <row r="32">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-    </row>
-    <row r="33">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-    </row>
-    <row r="34">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-    </row>
-    <row r="35">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-    </row>
-    <row r="36">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-    </row>
-    <row r="37">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-    </row>
-    <row r="38">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-    </row>
-    <row r="39">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-    </row>
-    <row r="40">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-    </row>
-    <row r="41">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-    </row>
-    <row r="42">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-    </row>
-    <row r="43">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-    </row>
-    <row r="44">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-    </row>
-    <row r="45">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-    </row>
-    <row r="46">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-    </row>
-    <row r="47">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-    </row>
-    <row r="48">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="19"/>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="19"/>
-    </row>
-    <row r="49">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="19"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="19"/>
-    </row>
-    <row r="50">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="19"/>
-    </row>
-    <row r="51">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="19"/>
-    </row>
-    <row r="52">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="19"/>
-      <c r="AA52" s="19"/>
-    </row>
-    <row r="53">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-    </row>
-    <row r="54">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="19"/>
-      <c r="Z54" s="19"/>
-      <c r="AA54" s="19"/>
-    </row>
-    <row r="55">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="19"/>
-      <c r="AA55" s="19"/>
-    </row>
-    <row r="56">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
-      <c r="W56" s="19"/>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="19"/>
-      <c r="Z56" s="19"/>
-      <c r="AA56" s="19"/>
-    </row>
-    <row r="57">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19"/>
-    </row>
-    <row r="58">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-    </row>
-    <row r="59">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="19"/>
-      <c r="AA59" s="19"/>
-    </row>
-    <row r="60">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="19"/>
-      <c r="AA60" s="19"/>
-    </row>
-    <row r="61">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="19"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="19"/>
-      <c r="Z61" s="19"/>
-      <c r="AA61" s="19"/>
-    </row>
-    <row r="62">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="19"/>
-      <c r="AA62" s="19"/>
-    </row>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
